--- a/ListeTehno.xlsx
+++ b/ListeTehno.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F8409-0FC4-4418-AE1A-6478772F0F6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,129 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Interactive Content H5P</t>
+  </si>
+  <si>
+    <t>VooPlayer V4</t>
+  </si>
+  <si>
+    <t>Add unlimited clickable text overlays and buttons (at any given moment!)</t>
+  </si>
+  <si>
+    <t>Add Pay-per-view locks to your videos</t>
+  </si>
+  <si>
+    <t>Add opt-in forms inside your videos</t>
+  </si>
+  <si>
+    <t>Set up split-tests to see what video performs best</t>
+  </si>
+  <si>
+    <t>Create branching logic for your videos</t>
+  </si>
+  <si>
+    <t>See average completion rate and exit points (who watches the whole video, and when do they leave)</t>
+  </si>
+  <si>
+    <t>Automatically redirect visitors to any URL when they finish watching the video</t>
+  </si>
+  <si>
+    <t>Show a clickable image ad when users pause the video</t>
+  </si>
+  <si>
+    <t>Set it to auto-pause the video when users leave your page, then continue the video when they return.</t>
+  </si>
+  <si>
+    <t>Lock your video content at a particular time and ask viewers to share it on social sites to continue.</t>
+  </si>
+  <si>
+    <t>It’s designed to work with:
+– WordPress (both posts and pages)
+– iPhone/iPad and other mobile devices (html5)
+– Aweber
+– GetResponse
+– Mailchimp
+– YouTube Video links
+– Amazon S3
+– MP4</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/plugins/vooplayer/</t>
+  </si>
+  <si>
+    <t>Multiple choice questions with one or more correct answers</t>
+  </si>
+  <si>
+    <t>Fill in the blank questions</t>
+  </si>
+  <si>
+    <t>Drag and drop questions</t>
+  </si>
+  <si>
+    <t>Interactive summaries</t>
+  </si>
+  <si>
+    <t>Single choice question sets</t>
+  </si>
+  <si>
+    <t>Mark the word activities</t>
+  </si>
+  <si>
+    <t>Drag and drop text</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Links
+Texts</t>
+  </si>
+  <si>
+    <t>https://h5p.org/interactive-video</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +164,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +456,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{835A6D2F-5F05-4537-B8A7-032C96D85ACC}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{F1412FC7-C6EE-4CCD-826E-E6FF0EE443DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>